--- a/rozbor práce.xlsx
+++ b/rozbor práce.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\soukrome\3. Ai\PRO\PROJEKT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E38995BB-4A01-42F3-948F-6613FDD8B0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF9C36F-C569-4529-B720-EE309B2548C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46D08865-5D2E-4A91-B12D-B5BC40A40173}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>vytvoreni frontendu pro aplikaci</t>
   </si>
@@ -50,12 +50,6 @@
     <t>github repo</t>
   </si>
   <si>
-    <t>prezentace</t>
-  </si>
-  <si>
-    <t>cena za hodinu 1000</t>
-  </si>
-  <si>
     <t>vytvoreni ucitelu</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t xml:space="preserve">ucitel - </t>
   </si>
   <si>
-    <t>databaze -</t>
-  </si>
-  <si>
     <t>seznam praci</t>
   </si>
   <si>
@@ -98,7 +89,25 @@
     <t>vytvoreni databaze</t>
   </si>
   <si>
-    <t>prihlasovani</t>
+    <t>dokumentace</t>
+  </si>
+  <si>
+    <t>cena za hodinu</t>
+  </si>
+  <si>
+    <t>backend</t>
+  </si>
+  <si>
+    <t>prihlasovani -</t>
+  </si>
+  <si>
+    <t>frontend</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>backend / databaze -</t>
   </si>
 </sst>
 </file>
@@ -123,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -158,6 +167,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -178,6 +198,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -260,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -268,14 +299,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -610,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5292B66C-34DA-40E3-9AB7-2A1E61A18A70}">
-  <dimension ref="C1:F20"/>
+  <dimension ref="C1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,193 +655,231 @@
     <col min="3" max="3" width="29.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="11">
+    <row r="4" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="8" t="s">
+    <row r="5" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="4"/>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="5"/>
+      <c r="D7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="6"/>
+      <c r="D8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+      <c r="D12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="6"/>
+      <c r="D13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="5"/>
+      <c r="D16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="5"/>
+      <c r="D17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="5"/>
+      <c r="D18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="6"/>
+      <c r="D19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="5"/>
-      <c r="D7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="4"/>
-      <c r="D9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="4"/>
-      <c r="D10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="5"/>
-      <c r="D11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="4"/>
-      <c r="D13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="4"/>
-      <c r="D14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="4"/>
-      <c r="D15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="5"/>
-      <c r="D16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="6" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="13">
         <v>4</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E20" s="1">
-        <f>SUM(E2:E19)</f>
-        <v>26</v>
-      </c>
-      <c r="F20" s="2">
-        <f>26*1000</f>
-        <v>26000</v>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="1">
+        <f>SUM(E2:E22)</f>
+        <v>80</v>
+      </c>
+      <c r="F23" s="2">
+        <f>E23*G1</f>
+        <v>96000</v>
       </c>
     </row>
   </sheetData>

--- a/rozbor práce.xlsx
+++ b/rozbor práce.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\soukrome\3. Ai\PRO\PROJEKT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam.erben\Desktop\PROJEKT-PROGRAMOVANI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF9C36F-C569-4529-B720-EE309B2548C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5EA434-2379-4907-A763-48AD8F2B5EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46D08865-5D2E-4A91-B12D-B5BC40A40173}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>vytvoreni frontendu pro aplikaci</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>backend / databaze -</t>
+  </si>
+  <si>
+    <t>neni hotovy</t>
   </si>
 </sst>
 </file>
@@ -291,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -303,13 +306,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -644,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5292B66C-34DA-40E3-9AB7-2A1E61A18A70}">
-  <dimension ref="C1:G23"/>
+  <dimension ref="C1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +659,7 @@
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
@@ -669,179 +670,194 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7" s="5"/>
-      <c r="D7" s="11" t="s">
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="6"/>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
-      <c r="D11" s="11" t="s">
+      <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
-      <c r="D12" s="11" t="s">
+      <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="6"/>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C16" s="5"/>
-      <c r="D16" s="11" t="s">
+      <c r="D16" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="5"/>
-      <c r="D17" s="11" t="s">
+      <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="5"/>
-      <c r="D18" s="11" t="s">
+      <c r="D18" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="6"/>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="14">
         <v>3</v>
       </c>
     </row>
@@ -850,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>10</v>
       </c>
     </row>
@@ -859,7 +875,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <v>3</v>
       </c>
     </row>
@@ -868,7 +884,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <v>4</v>
       </c>
     </row>

--- a/rozbor práce.xlsx
+++ b/rozbor práce.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam.erben\Desktop\PROJEKT-PROGRAMOVANI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam.keller\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5EA434-2379-4907-A763-48AD8F2B5EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B3485C8-05CD-4652-B94D-5D5A1986B75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46D08865-5D2E-4A91-B12D-B5BC40A40173}"/>
   </bookViews>
@@ -648,7 +648,7 @@
   <dimension ref="C1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,6 +775,9 @@
       <c r="E10" s="15">
         <v>3</v>
       </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
@@ -813,6 +816,9 @@
       <c r="E14" s="13">
         <v>4</v>
       </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
@@ -833,8 +839,11 @@
       <c r="E16" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="5"/>
       <c r="D17" t="s">
         <v>6</v>
@@ -842,8 +851,11 @@
       <c r="E17" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="5"/>
       <c r="D18" t="s">
         <v>7</v>
@@ -852,7 +864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="6"/>
       <c r="D19" s="11" t="s">
         <v>8</v>
@@ -861,7 +873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="8" t="s">
         <v>0</v>
       </c>
@@ -870,7 +882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="8" t="s">
         <v>3</v>
       </c>
@@ -879,7 +891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="8" t="s">
         <v>17</v>
       </c>
@@ -888,7 +900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E23" s="1">
         <f>SUM(E2:E22)</f>
         <v>80</v>

--- a/rozbor práce.xlsx
+++ b/rozbor práce.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam.keller\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam.keller\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B3485C8-05CD-4652-B94D-5D5A1986B75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC3160A-A836-424E-8278-B3F34F96DAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46D08865-5D2E-4A91-B12D-B5BC40A40173}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>vytvoreni frontendu pro aplikaci</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>backend / databaze -</t>
-  </si>
-  <si>
-    <t>neni hotovy</t>
   </si>
 </sst>
 </file>
@@ -645,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5292B66C-34DA-40E3-9AB7-2A1E61A18A70}">
-  <dimension ref="C1:I23"/>
+  <dimension ref="C1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +656,7 @@
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
@@ -670,7 +667,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="2" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -681,13 +678,10 @@
         <v>4</v>
       </c>
       <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
@@ -701,7 +695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
         <v>21</v>
@@ -713,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8" t="s">
         <v>16</v>
       </c>
@@ -725,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
@@ -736,7 +730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="5"/>
       <c r="D7" t="s">
         <v>14</v>
@@ -745,7 +739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="6"/>
       <c r="D8" s="11" t="s">
         <v>13</v>
@@ -754,7 +748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
@@ -765,7 +759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
@@ -776,10 +770,10 @@
         <v>3</v>
       </c>
       <c r="H10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
       <c r="D11" t="s">
         <v>7</v>
@@ -788,7 +782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
       <c r="D12" t="s">
         <v>10</v>
@@ -797,7 +791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="6"/>
       <c r="D13" s="11" t="s">
         <v>8</v>
@@ -806,7 +800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
@@ -817,10 +811,10 @@
         <v>4</v>
       </c>
       <c r="H14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>23</v>
       </c>
@@ -831,7 +825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="5"/>
       <c r="D16" t="s">
         <v>5</v>
@@ -852,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
@@ -881,6 +875,9 @@
       <c r="E20" s="12">
         <v>10</v>
       </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="8" t="s">
@@ -898,6 +895,10 @@
       <c r="D22" s="9"/>
       <c r="E22" s="12">
         <v>4</v>
+      </c>
+      <c r="H22">
+        <f>SUM(H2:H21)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">

--- a/rozbor práce.xlsx
+++ b/rozbor práce.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirek.hanc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D551CBB9-E85A-441D-ADBF-68AD2B6CDF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99EA4B8-A4DE-4844-90AE-1FC5B305CD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46D08865-5D2E-4A91-B12D-B5BC40A40173}"/>
   </bookViews>
@@ -644,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5292B66C-34DA-40E3-9AB7-2A1E61A18A70}">
   <dimension ref="C1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +704,7 @@
         <v>2</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -741,6 +741,9 @@
       <c r="E7" s="13">
         <v>3</v>
       </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="6"/>
@@ -750,6 +753,9 @@
       <c r="E8" s="14">
         <v>3</v>
       </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="5" t="s">
@@ -787,6 +793,9 @@
       <c r="E11" s="13">
         <v>4</v>
       </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
@@ -796,6 +805,9 @@
       <c r="E12" s="13">
         <v>3</v>
       </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="6"/>
@@ -869,6 +881,9 @@
       <c r="E18" s="13">
         <v>4</v>
       </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="6"/>
@@ -879,7 +894,7 @@
         <v>3</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -891,7 +906,7 @@
         <v>10</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -926,7 +941,7 @@
       </c>
       <c r="H23">
         <f>SUM(H2:H21)</f>
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/rozbor práce.xlsx
+++ b/rozbor práce.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirek.hanc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirek.hanc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99EA4B8-A4DE-4844-90AE-1FC5B305CD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E617F53-076A-46F7-B576-08E7DA656631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46D08865-5D2E-4A91-B12D-B5BC40A40173}"/>
   </bookViews>
@@ -89,9 +89,6 @@
     <t>vytvoreni databaze</t>
   </si>
   <si>
-    <t>dokumentace</t>
-  </si>
-  <si>
     <t>cena za hodinu</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>backend / databaze -</t>
+  </si>
+  <si>
+    <t>prezentace</t>
   </si>
 </sst>
 </file>
@@ -645,7 +645,7 @@
   <dimension ref="C1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +661,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1">
         <v>1200</v>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="12">
         <v>4</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="15">
         <v>5</v>
@@ -698,7 +698,7 @@
     <row r="4" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="14">
         <v>2</v>
@@ -754,21 +754,21 @@
         <v>3</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="13">
         <v>4</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
@@ -794,7 +794,7 @@
         <v>4</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
@@ -818,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -826,18 +826,18 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="13">
         <v>4</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>4</v>
@@ -846,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
@@ -923,11 +923,14 @@
     </row>
     <row r="22" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="12">
         <v>4</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
@@ -940,8 +943,8 @@
         <v>96000</v>
       </c>
       <c r="H23">
-        <f>SUM(H2:H21)</f>
-        <v>80</v>
+        <f>SUM(H2:H22)</f>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
